--- a/Amazon_Defect_GenerationSheet_JIRA.xlsx
+++ b/Amazon_Defect_GenerationSheet_JIRA.xlsx
@@ -8,7 +8,7 @@
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="F:\AutomationTesting\Assignments\Manual Assignments\Manual Project\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{246857FF-96B8-40C9-A6DE-87242B304F83}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{3A480FC1-235B-4129-AF2D-43B89A2DC92F}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="0" yWindow="0" windowWidth="19815" windowHeight="7815" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -556,8 +556,8 @@
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1">
       <alignment vertical="center"/>
     </xf>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1">
-      <alignment vertical="center"/>
+    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFont="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center"/>
     </xf>
   </cellXfs>
   <cellStyles count="1">
@@ -2760,23 +2760,32 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A3"/>
+  <dimension ref="A1:E3"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection sqref="A1:E1"/>
+    </sheetView>
   </sheetViews>
   <sheetFormatPr defaultColWidth="9.140625" defaultRowHeight="15"/>
   <sheetData>
-    <row r="1" spans="1:1">
+    <row r="1" spans="1:5">
       <c r="A1" s="3" t="s">
         <v>9</v>
       </c>
+      <c r="B1" s="3"/>
+      <c r="C1" s="3"/>
+      <c r="D1" s="3"/>
+      <c r="E1" s="3"/>
     </row>
-    <row r="3" spans="1:1">
+    <row r="3" spans="1:5">
       <c r="A3" s="2" t="s">
         <v>0</v>
       </c>
     </row>
   </sheetData>
+  <mergeCells count="1">
+    <mergeCell ref="A1:E1"/>
+  </mergeCells>
   <pageMargins left="0.75" right="0.75" top="1" bottom="1" header="0.5" footer="0.5"/>
   <drawing r:id="rId1"/>
 </worksheet>
